--- a/Documentation/Deadline.xlsx
+++ b/Documentation/Deadline.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Google Drive\Cerberus\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Desktop\cerberus-web\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>Deadline</t>
   </si>
@@ -155,12 +155,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -173,13 +167,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,28 +212,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -518,621 +517,589 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5546875" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43686</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>43709</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2">
         <v>43739</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2">
         <v>43770</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>43800</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43687</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="11"/>
       <c r="D3" s="2">
         <v>43710</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>43740</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2">
         <v>43771</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M3" s="2">
         <v>43801</v>
       </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>43688</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>43711</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="2">
         <v>43741</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>43772</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="2">
         <v>43802</v>
       </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43689</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>43712</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8"/>
       <c r="G5" s="2">
         <v>43742</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="2">
         <v>43773</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="2">
         <v>43803</v>
       </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43690</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>43713</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="8"/>
       <c r="G6" s="2">
         <v>43743</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="2">
         <v>43774</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K6" s="8"/>
       <c r="M6" s="2">
         <v>43804</v>
       </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43691</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="8"/>
       <c r="D7" s="2">
         <v>43714</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="G7" s="8">
+      <c r="E7" s="8"/>
+      <c r="G7" s="6">
         <v>43744</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <v>43775</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K7" s="8"/>
       <c r="M7" s="2">
         <v>43805</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43692</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>43715</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2">
         <v>43745</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="2">
         <v>43776</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K8" s="8"/>
       <c r="M8" s="2">
         <v>43806</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43693</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="D9" s="8">
+      <c r="B9" s="8"/>
+      <c r="D9" s="6">
         <v>43716</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="2">
         <v>43746</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="2">
         <v>43777</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="K9" s="8"/>
+      <c r="M9" s="6">
         <v>43807</v>
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43694</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="8"/>
       <c r="D10" s="2">
         <v>43717</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="2">
         <v>43747</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="2">
         <v>43778</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K10" s="8"/>
       <c r="M10" s="2">
         <v>43808</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>43695</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="8"/>
       <c r="D11" s="2">
         <v>43718</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="8"/>
       <c r="G11" s="2">
         <v>43748</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>43779</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K11" s="8"/>
       <c r="M11" s="2">
         <v>43809</v>
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43696</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="8"/>
       <c r="D12" s="2">
         <v>43719</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="8"/>
       <c r="G12" s="2">
         <v>43749</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="8"/>
       <c r="J12" s="2">
         <v>43780</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K12" s="8"/>
       <c r="M12" s="2">
         <v>43810</v>
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>43697</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="D13" s="11">
+      <c r="B13" s="8"/>
+      <c r="D13" s="7">
         <v>43720</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>43750</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="8"/>
       <c r="J13" s="2">
         <v>43781</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K13" s="8"/>
       <c r="M13" s="2">
         <v>43811</v>
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43698</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="8"/>
       <c r="D14" s="2">
         <v>43721</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="G14" s="8">
+      <c r="E14" s="8"/>
+      <c r="G14" s="6">
         <v>43751</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="2">
         <v>43782</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K14" s="8"/>
       <c r="M14" s="2">
         <v>43812</v>
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43699</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="8"/>
       <c r="D15" s="2">
         <v>43722</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
       <c r="G15" s="2">
         <v>43752</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="2">
         <v>43783</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K15" s="8"/>
       <c r="M15" s="2">
         <v>43813</v>
       </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43700</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>43723</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
       <c r="G16" s="2">
         <v>43753</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="2">
         <v>43784</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="6">
         <v>43814</v>
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43701</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2">
         <v>43724</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
       <c r="G17" s="2">
         <v>43754</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="2">
         <v>43785</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K17" s="15"/>
       <c r="M17" s="2">
         <v>43815</v>
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>43702</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2">
         <v>43725</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
       <c r="G18" s="2">
         <v>43755</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>43786</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K18" s="15"/>
       <c r="M18" s="2">
         <v>43816</v>
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43703</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2">
         <v>43726</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="8"/>
       <c r="G19" s="2">
         <v>43756</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="8"/>
       <c r="J19" s="2">
         <v>43787</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K19" s="15"/>
       <c r="M19" s="2">
         <v>43817</v>
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43704</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2">
         <v>43727</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="8"/>
       <c r="G20" s="2">
         <v>43757</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="11"/>
       <c r="J20" s="2">
         <v>43788</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K20" s="15"/>
       <c r="M20" s="2">
         <v>43818</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43705</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="2">
         <v>43728</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="G21" s="8">
+      <c r="E21" s="8"/>
+      <c r="G21" s="6">
         <v>43758</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="2">
         <v>43789</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K21" s="15"/>
       <c r="M21" s="2">
         <v>43819</v>
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43706</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2">
         <v>43729</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="8"/>
       <c r="G22" s="2">
         <v>43759</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="2">
         <v>43790</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K22" s="15"/>
       <c r="M22" s="2">
         <v>43820</v>
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43707</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>43730</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="8"/>
       <c r="G23" s="2">
         <v>43760</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="2">
@@ -1141,26 +1108,26 @@
       <c r="K23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>43821</v>
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43708</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2">
         <v>43731</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="8"/>
       <c r="G24" s="2">
         <v>43761</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="2">
@@ -1174,18 +1141,18 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <v>43732</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="8"/>
       <c r="G25" s="2">
         <v>43762</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>43793</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -1196,16 +1163,16 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="2">
         <v>43733</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="8"/>
       <c r="G26" s="2">
         <v>43763</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="2">
@@ -1219,15 +1186,15 @@
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <v>43734</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="8"/>
       <c r="G27" s="2">
         <v>43764</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="2">
@@ -1241,15 +1208,15 @@
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <v>43735</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="G28" s="8">
+      <c r="E28" s="8"/>
+      <c r="G28" s="6">
         <v>43765</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="2">
@@ -1263,15 +1230,15 @@
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <v>43736</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="8"/>
       <c r="G29" s="2">
         <v>43766</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J29" s="2">
@@ -1285,15 +1252,15 @@
       </c>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D30" s="8">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="6">
         <v>43737</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="8"/>
       <c r="G30" s="2">
         <v>43767</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J30" s="2">
@@ -1302,22 +1269,22 @@
       <c r="K30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="6">
         <v>43828</v>
       </c>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <v>43738</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="2">
         <v>43768</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J31" s="2">
@@ -1331,11 +1298,11 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G32" s="2">
         <v>43769</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="14" t="s">
         <v>12</v>
       </c>
       <c r="M32" s="2">
@@ -1343,10 +1310,10 @@
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="35" spans="4:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="4:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
